--- a/webapp/src/uploads/predicted_unlabeled_commits.xlsx
+++ b/webapp/src/uploads/predicted_unlabeled_commits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>label</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>confidence</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,9 @@
           <t>bugfix</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>0.2867957072011674</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +476,9 @@
           <t>feature</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>0.2984461658463237</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +491,9 @@
           <t>refactor</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>0.2261905999665737</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +506,9 @@
           <t>refactor</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>0.199830411225062</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +521,9 @@
           <t>bugfix</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>0.2892984845204236</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +536,9 @@
           <t>refactor</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>0.199830411225062</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +551,9 @@
           <t>refactor</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>0.269856238839315</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +566,9 @@
           <t>refactor</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>0.1889446286839567</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +581,9 @@
           <t>feature</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>0.2393715690698689</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +596,9 @@
           <t>bugfix</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>0.2170463137454154</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +611,9 @@
           <t>bugfix</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>0.2507262996613995</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -588,6 +626,9 @@
           <t>refactor</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>0.199830411225062</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -600,6 +641,9 @@
           <t>refactor</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>0.2228935537865555</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -612,6 +656,9 @@
           <t>bugfix</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>0.2892984845204236</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +671,9 @@
           <t>refactor</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>0.199830411225062</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -636,6 +686,9 @@
           <t>feature</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>0.2671192696684385</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -648,6 +701,9 @@
           <t>bugfix</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>0.273080436631102</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -660,6 +716,9 @@
           <t>refactor</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>0.2039381202026201</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -672,6 +731,9 @@
           <t>bugfix</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>0.2301744125233183</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -683,6 +745,9 @@
         <is>
           <t>feature</t>
         </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2456780320684599</v>
       </c>
     </row>
   </sheetData>
